--- a/easyexcel-test/src/test/resources/demo/fill/row.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/row.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -27,25 +27,19 @@
     <t>复杂</t>
   </si>
   <si>
-    <t>忽略</t>
-  </si>
-  <si>
     <t>计算</t>
   </si>
   <si>
-    <t>{name | echo-cell-row}</t>
+    <t>{.name | echo-cell-row}</t>
   </si>
   <si>
-    <t>{number}</t>
+    <t>{.number}</t>
   </si>
   <si>
-    <t>{name | cell-red}今年{number}岁了</t>
+    <t>{.name}今年{.number}岁了</t>
   </si>
   <si>
-    <t>\{name\}忽略，{name}</t>
-  </si>
-  <si>
-    <t>{empty | cell-formula}B{empty | echo-cell-row} * 1024</t>
+    <t>{.empty | cell-formula}B{.empty | echo-cell-row} * 1024</t>
   </si>
 </sst>
 </file>
@@ -1013,21 +1007,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="84.5" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,25 +1033,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
